--- a/Luaban/Config/Datas/SceneInfo.xlsx
+++ b/Luaban/Config/Datas/SceneInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>##</t>
   </si>
@@ -30,6 +30,18 @@
     <t>CameraPosition</t>
   </si>
   <si>
+    <t>CameraRotration</t>
+  </si>
+  <si>
+    <t>MapName</t>
+  </si>
+  <si>
+    <t>EenemyPosition</t>
+  </si>
+  <si>
+    <t>MapPosition</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -42,58 +54,148 @@
     <t>vector3</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>场次序号</t>
   </si>
   <si>
     <t>摄像机位置</t>
   </si>
   <si>
+    <t>摄像机旋转</t>
+  </si>
+  <si>
+    <t>地图名字</t>
+  </si>
+  <si>
+    <t>敌人生成位置</t>
+  </si>
+  <si>
+    <t>地图位置</t>
+  </si>
+  <si>
     <t>1|3|4|5|7|8|9|11</t>
   </si>
   <si>
-    <t>11,22,33</t>
+    <t>22,42,60</t>
+  </si>
+  <si>
+    <t>50,180,0</t>
+  </si>
+  <si>
+    <t>MapModel1</t>
+  </si>
+  <si>
+    <t>0,0,24</t>
+  </si>
+  <si>
+    <t>25,3,25</t>
   </si>
   <si>
     <t>1|3|4|5|7|8|9|12</t>
   </si>
   <si>
-    <t>11,22,34</t>
+    <t>22,42,61</t>
+  </si>
+  <si>
+    <t>50,180,1</t>
+  </si>
+  <si>
+    <t>MapModel2</t>
+  </si>
+  <si>
+    <t>25,3,26</t>
   </si>
   <si>
     <t>1|3|4|5|7|8|9|13</t>
   </si>
   <si>
-    <t>11,22,35</t>
+    <t>22,42,62</t>
+  </si>
+  <si>
+    <t>50,180,2</t>
+  </si>
+  <si>
+    <t>MapModel3</t>
+  </si>
+  <si>
+    <t>25,3,27</t>
   </si>
   <si>
     <t>1|3|4|5|7|8|9|14</t>
   </si>
   <si>
-    <t>11,22,36</t>
+    <t>22,42,63</t>
+  </si>
+  <si>
+    <t>50,180,3</t>
+  </si>
+  <si>
+    <t>MapModel4</t>
+  </si>
+  <si>
+    <t>25,3,28</t>
   </si>
   <si>
     <t>1|3|4|5|7|8|9|15</t>
   </si>
   <si>
-    <t>11,22,37</t>
+    <t>22,42,64</t>
+  </si>
+  <si>
+    <t>50,180,4</t>
+  </si>
+  <si>
+    <t>MapModel5</t>
+  </si>
+  <si>
+    <t>25,3,29</t>
   </si>
   <si>
     <t>1|3|4|5|7|8|9|16</t>
   </si>
   <si>
-    <t>11,22,38</t>
+    <t>22,42,65</t>
+  </si>
+  <si>
+    <t>50,180,5</t>
+  </si>
+  <si>
+    <t>MapModel6</t>
+  </si>
+  <si>
+    <t>25,3,30</t>
   </si>
   <si>
     <t>1|3|4|5|7|8|9|17</t>
   </si>
   <si>
-    <t>11,22,39</t>
+    <t>22,42,66</t>
+  </si>
+  <si>
+    <t>50,180,6</t>
+  </si>
+  <si>
+    <t>MapModel7</t>
+  </si>
+  <si>
+    <t>25,3,31</t>
   </si>
   <si>
     <t>1|3|4|5|7|8|9|18</t>
   </si>
   <si>
-    <t>11,22,40</t>
+    <t>22,42,67</t>
+  </si>
+  <si>
+    <t>50,180,7</t>
+  </si>
+  <si>
+    <t>MapModel8</t>
+  </si>
+  <si>
+    <t>25,3,32</t>
   </si>
 </sst>
 </file>
@@ -800,6 +902,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1148,24 +1251,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
-    <col min="5" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="16.5833333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.3333333333333" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="16.5833333333333" customWidth="1"/>
+    <col min="12" max="12" width="26.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1178,216 +1282,333 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="2:4">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:8">
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
+        <v>19</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="2:8">
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
+        <v>25</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="2:8">
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:13">
+        <v>30</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:14">
       <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:13">
+      <c r="L7" s="3"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:14">
       <c r="A8" s="3"/>
       <c r="B8" s="1">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:13">
+      <c r="L8" s="3"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:14">
       <c r="A9" s="4"/>
       <c r="B9" s="1">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:13">
+      <c r="J9" s="4"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:14">
       <c r="A10" s="4"/>
       <c r="B10" s="1">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="H10" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:13">
+      <c r="J10" s="4"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:14">
       <c r="A11" s="3"/>
       <c r="B11" s="1">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="12:13">
-      <c r="L12" s="12"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="13:14">
       <c r="M12" s="12"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="12:13">
-      <c r="L13" s="12"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="13:14">
       <c r="M13" s="12"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="12:13">
-      <c r="L14" s="12"/>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="13:14">
       <c r="M14" s="12"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="12:13">
-      <c r="L15" s="12"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="13:14">
       <c r="M15" s="12"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="12:13">
-      <c r="L16" s="12"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="13:14">
       <c r="M16" s="12"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="12:13">
-      <c r="L17" s="12"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="13:14">
       <c r="M17" s="12"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="12:13">
-      <c r="L18" s="12"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="13:14">
       <c r="M18" s="12"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="7:13">
-      <c r="G19" s="5"/>
-      <c r="L19" s="12"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="8:14">
+      <c r="H19" s="5"/>
       <c r="M19" s="12"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="7:13">
-      <c r="G20" s="5"/>
-      <c r="L20" s="12"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="8:14">
+      <c r="H20" s="5"/>
       <c r="M20" s="12"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="12:13">
-      <c r="L21" s="12"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="13:14">
       <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M9:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luaban/Config/Datas/SceneInfo.xlsx
+++ b/Luaban/Config/Datas/SceneInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13500"/>
+    <workbookView windowWidth="21000" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>##</t>
   </si>
@@ -42,6 +42,9 @@
     <t>MapPosition</t>
   </si>
   <si>
+    <t>PointScale</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -75,127 +78,67 @@
     <t>地图位置</t>
   </si>
   <si>
+    <t>地图坐标点的缩放</t>
+  </si>
+  <si>
     <t>1|3|4|5|7|8|9|11</t>
   </si>
   <si>
-    <t>22,42,60</t>
-  </si>
-  <si>
-    <t>50,180,0</t>
+    <t>21,54,13</t>
+  </si>
+  <si>
+    <t>60,1,0</t>
   </si>
   <si>
     <t>MapModel1</t>
   </si>
   <si>
-    <t>0,0,24</t>
-  </si>
-  <si>
-    <t>25,3,25</t>
+    <t>0,0,30</t>
+  </si>
+  <si>
+    <t>22,3.5,22</t>
   </si>
   <si>
     <t>1|3|4|5|7|8|9|12</t>
   </si>
   <si>
-    <t>22,42,61</t>
-  </si>
-  <si>
-    <t>50,180,1</t>
-  </si>
-  <si>
     <t>MapModel2</t>
   </si>
   <si>
-    <t>25,3,26</t>
-  </si>
-  <si>
     <t>1|3|4|5|7|8|9|13</t>
   </si>
   <si>
-    <t>22,42,62</t>
-  </si>
-  <si>
-    <t>50,180,2</t>
-  </si>
-  <si>
     <t>MapModel3</t>
   </si>
   <si>
-    <t>25,3,27</t>
-  </si>
-  <si>
     <t>1|3|4|5|7|8|9|14</t>
   </si>
   <si>
-    <t>22,42,63</t>
-  </si>
-  <si>
-    <t>50,180,3</t>
-  </si>
-  <si>
     <t>MapModel4</t>
   </si>
   <si>
-    <t>25,3,28</t>
-  </si>
-  <si>
     <t>1|3|4|5|7|8|9|15</t>
   </si>
   <si>
-    <t>22,42,64</t>
-  </si>
-  <si>
-    <t>50,180,4</t>
-  </si>
-  <si>
     <t>MapModel5</t>
   </si>
   <si>
-    <t>25,3,29</t>
-  </si>
-  <si>
     <t>1|3|4|5|7|8|9|16</t>
   </si>
   <si>
-    <t>22,42,65</t>
-  </si>
-  <si>
-    <t>50,180,5</t>
-  </si>
-  <si>
     <t>MapModel6</t>
   </si>
   <si>
-    <t>25,3,30</t>
-  </si>
-  <si>
     <t>1|3|4|5|7|8|9|17</t>
   </si>
   <si>
-    <t>22,42,66</t>
-  </si>
-  <si>
-    <t>50,180,6</t>
-  </si>
-  <si>
     <t>MapModel7</t>
   </si>
   <si>
-    <t>25,3,31</t>
-  </si>
-  <si>
     <t>1|3|4|5|7|8|9|18</t>
   </si>
   <si>
-    <t>22,42,67</t>
-  </si>
-  <si>
-    <t>50,180,7</t>
-  </si>
-  <si>
     <t>MapModel8</t>
-  </si>
-  <si>
-    <t>25,3,32</t>
   </si>
 </sst>
 </file>
@@ -1265,11 +1208,12 @@
     <col min="6" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
     <col min="11" max="11" width="16.5833333333333" customWidth="1"/>
     <col min="12" max="12" width="26.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1294,123 +1238,141 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="2:8">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:9">
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="2:8">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="2:9">
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="2:8">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="2:9">
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:14">
@@ -1419,24 +1381,26 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1449,24 +1413,26 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1479,24 +1445,26 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5</v>
+      </c>
       <c r="J9" s="4"/>
       <c r="K9" s="9"/>
       <c r="L9" s="4"/>
@@ -1509,24 +1477,26 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="9"/>
       <c r="L10" s="4"/>
@@ -1539,24 +1509,26 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="8"/>
       <c r="L11" s="3"/>

--- a/Luaban/Config/Datas/SceneInfo.xlsx
+++ b/Luaban/Config/Datas/SceneInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="10350"/>
+    <workbookView windowWidth="21600" windowHeight="10730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1197,20 +1197,20 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="18.2545454545455" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="17.1272727272727" customWidth="1"/>
+    <col min="6" max="6" width="12.2545454545455" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="17.125" customWidth="1"/>
-    <col min="11" max="11" width="16.5833333333333" customWidth="1"/>
-    <col min="12" max="12" width="26.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="12.6272727272727" customWidth="1"/>
+    <col min="9" max="9" width="17.1272727272727" customWidth="1"/>
+    <col min="11" max="11" width="16.5818181818182" customWidth="1"/>
+    <col min="12" max="12" width="26.3363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
@@ -1597,7 +1597,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1614,7 +1614,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luaban/Config/Datas/SceneInfo.xlsx
+++ b/Luaban/Config/Datas/SceneInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>##</t>
   </si>
@@ -84,10 +84,10 @@
     <t>1|3|4|5|7|8|9|11</t>
   </si>
   <si>
-    <t>21,54,13</t>
-  </si>
-  <si>
-    <t>60,1,0</t>
+    <t>18,32,2</t>
+  </si>
+  <si>
+    <t>60,0.2,0</t>
   </si>
   <si>
     <t>MapModel1</t>
@@ -102,40 +102,61 @@
     <t>1|3|4|5|7|8|9|12</t>
   </si>
   <si>
+    <t>18,32,3</t>
+  </si>
+  <si>
     <t>MapModel2</t>
   </si>
   <si>
     <t>1|3|4|5|7|8|9|13</t>
   </si>
   <si>
+    <t>18,32,4</t>
+  </si>
+  <si>
     <t>MapModel3</t>
   </si>
   <si>
     <t>1|3|4|5|7|8|9|14</t>
   </si>
   <si>
+    <t>18,32,5</t>
+  </si>
+  <si>
     <t>MapModel4</t>
   </si>
   <si>
     <t>1|3|4|5|7|8|9|15</t>
   </si>
   <si>
+    <t>18,32,6</t>
+  </si>
+  <si>
     <t>MapModel5</t>
   </si>
   <si>
     <t>1|3|4|5|7|8|9|16</t>
   </si>
   <si>
+    <t>18,32,7</t>
+  </si>
+  <si>
     <t>MapModel6</t>
   </si>
   <si>
     <t>1|3|4|5|7|8|9|17</t>
   </si>
   <si>
+    <t>18,32,8</t>
+  </si>
+  <si>
     <t>MapModel7</t>
   </si>
   <si>
     <t>1|3|4|5|7|8|9|18</t>
+  </si>
+  <si>
+    <t>18,32,9</t>
   </si>
   <si>
     <t>MapModel8</t>
@@ -1197,7 +1218,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1304,7 +1325,7 @@
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1330,14 +1351,14 @@
       <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>22</v>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>25</v>
@@ -1354,16 +1375,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>25</v>
@@ -1381,16 +1402,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>25</v>
@@ -1413,16 +1434,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>25</v>
@@ -1445,16 +1466,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>25</v>
@@ -1477,16 +1498,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>22</v>
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>25</v>
@@ -1509,16 +1530,16 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>25</v>

--- a/Luaban/Config/Datas/SceneInfo.xlsx
+++ b/Luaban/Config/Datas/SceneInfo.xlsx
@@ -93,10 +93,10 @@
     <t>MapModel1</t>
   </si>
   <si>
-    <t>0,0,30</t>
-  </si>
-  <si>
-    <t>22,3.5,22</t>
+    <t>0,0,20</t>
+  </si>
+  <si>
+    <t>42.5,3.5,22</t>
   </si>
   <si>
     <t>1|3|4|5|7|8|9|12</t>
@@ -1218,7 +1218,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Luaban/Config/Datas/SceneInfo.xlsx
+++ b/Luaban/Config/Datas/SceneInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10730"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>##</t>
   </si>
@@ -81,7 +81,7 @@
     <t>地图坐标点的缩放</t>
   </si>
   <si>
-    <t>1|3|4|5|7|8|9|11</t>
+    <t>1,2,3,4,5,6,7,8,9,10</t>
   </si>
   <si>
     <t>18,32,2</t>
@@ -99,61 +99,40 @@
     <t>42.5,3.5,22</t>
   </si>
   <si>
-    <t>1|3|4|5|7|8|9|12</t>
-  </si>
-  <si>
     <t>18,32,3</t>
   </si>
   <si>
     <t>MapModel2</t>
   </si>
   <si>
-    <t>1|3|4|5|7|8|9|13</t>
-  </si>
-  <si>
     <t>18,32,4</t>
   </si>
   <si>
     <t>MapModel3</t>
   </si>
   <si>
-    <t>1|3|4|5|7|8|9|14</t>
-  </si>
-  <si>
     <t>18,32,5</t>
   </si>
   <si>
     <t>MapModel4</t>
   </si>
   <si>
-    <t>1|3|4|5|7|8|9|15</t>
-  </si>
-  <si>
     <t>18,32,6</t>
   </si>
   <si>
     <t>MapModel5</t>
   </si>
   <si>
-    <t>1|3|4|5|7|8|9|16</t>
-  </si>
-  <si>
     <t>18,32,7</t>
   </si>
   <si>
     <t>MapModel6</t>
   </si>
   <si>
-    <t>1|3|4|5|7|8|9|17</t>
-  </si>
-  <si>
     <t>18,32,8</t>
   </si>
   <si>
     <t>MapModel7</t>
-  </si>
-  <si>
-    <t>1|3|4|5|7|8|9|18</t>
   </si>
   <si>
     <t>18,32,9</t>
@@ -1218,20 +1197,20 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="18.2545454545455" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="17.1272727272727" customWidth="1"/>
-    <col min="6" max="6" width="12.2545454545455" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="12.2583333333333" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="12.6272727272727" customWidth="1"/>
-    <col min="9" max="9" width="17.1272727272727" customWidth="1"/>
-    <col min="11" max="11" width="16.5818181818182" customWidth="1"/>
-    <col min="12" max="12" width="26.3363636363636" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="11" max="11" width="16.5833333333333" customWidth="1"/>
+    <col min="12" max="12" width="26.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
@@ -1349,16 +1328,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>25</v>
@@ -1375,16 +1354,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>25</v>
@@ -1402,16 +1381,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>25</v>
@@ -1434,16 +1413,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>25</v>
@@ -1466,16 +1445,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>25</v>
@@ -1498,16 +1477,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>25</v>
@@ -1530,16 +1509,16 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>25</v>
@@ -1618,7 +1597,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1635,7 +1614,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luaban/Config/Datas/SceneInfo.xlsx
+++ b/Luaban/Config/Datas/SceneInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="21600" windowHeight="10730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>(list#sep=|),int</t>
+    <t>(list#sep=,),int</t>
   </si>
   <si>
     <t>vector3</t>
@@ -1197,20 +1197,20 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="22.6272727272727" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="12.2583333333333" customWidth="1"/>
+    <col min="5" max="5" width="17.1272727272727" customWidth="1"/>
+    <col min="6" max="6" width="12.2545454545455" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="17.125" customWidth="1"/>
-    <col min="11" max="11" width="16.5833333333333" customWidth="1"/>
-    <col min="12" max="12" width="26.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="12.6272727272727" customWidth="1"/>
+    <col min="9" max="9" width="17.1272727272727" customWidth="1"/>
+    <col min="11" max="11" width="16.5818181818182" customWidth="1"/>
+    <col min="12" max="12" width="26.3363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
@@ -1597,7 +1597,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1614,7 +1614,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
